--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nanowire\transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071AD0EC-0E27-4965-8B54-F938E18718C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77639CC1-0002-4D59-B246-BAC2C70502A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435" xr2:uid="{D685F6ED-6CA9-45E7-B6A3-AB6CAC1FF5C1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>L1/nH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,149 +449,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592642C1-8FAB-4224-B755-0B983A549B20}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1.2E-2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
         <v>0.09</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
       <c r="I2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
         <v>0.09</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
       <c r="I3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0.09</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.09</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.05</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1.3</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
+      <c r="C6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
         <v>0.09</v>
       </c>
-      <c r="G4">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.4</v>
+      </c>
+      <c r="C7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>0.09</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -596,7 +718,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,16 +739,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B2">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
